--- a/assign03_meeting_diary.xlsx
+++ b/assign03_meeting_diary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cookd/teaching/ETC5521/eda-private/assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashvi\Documents\Monash\2023 Sem2\ETC5521\Assignments\assignment-3-peaches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E6E8D6-D05B-C146-B3DA-2457C8448439}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A7E1A-77AA-40B3-B2AF-FE74E6A458FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="820" windowWidth="27860" windowHeight="16940" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Team Name:</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Discussions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fill in as needed </t>
   </si>
   <si>
     <t>eg.
@@ -72,12 +69,33 @@
 Fix merge conflict 
 Decide on choice of methods for first part</t>
   </si>
+  <si>
+    <t>Peaches</t>
+  </si>
+  <si>
+    <t>Tanish</t>
+  </si>
+  <si>
+    <t>Ashvin</t>
+  </si>
+  <si>
+    <t>aran0026</t>
+  </si>
+  <si>
+    <t>tjoh0028</t>
+  </si>
+  <si>
+    <t>1. Decided on the 'wild thing'/animal.
+2. Downloaded and saved the data.     
+3. Set up a plan for the week.
+4. Discusses some things to always consider when working collaboratively on git.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,14 +118,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -141,7 +151,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,35 +474,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B0CB73-A0EE-1845-ADEE-622320F90FF1}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -496,14 +530,14 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>45183</v>
       </c>
@@ -513,16 +547,28 @@
       <c r="C7" s="3">
         <v>0.79861111111111116</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>45187</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/assign03_meeting_diary.xlsx
+++ b/assign03_meeting_diary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashvi\Documents\Monash\2023 Sem2\ETC5521\Assignments\assignment-3-peaches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanishjohar/Desktop/ExDA_Assign3/assignment-3-peaches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A7E1A-77AA-40B3-B2AF-FE74E6A458FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA0E977-F108-4646-9BC1-01B3375DFB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Team Name:</t>
   </si>
@@ -89,6 +89,15 @@
 2. Downloaded and saved the data.     
 3. Set up a plan for the week.
 4. Discusses some things to always consider when working collaboratively on git.</t>
+  </si>
+  <si>
+    <t>2. Delegated the work of downloading weather data and joining it with mild signtings</t>
+  </si>
+  <si>
+    <t>3. Discussed the plots to create afterwards</t>
+  </si>
+  <si>
+    <t>1. Discussed the plots to create to confirm expetations.</t>
   </si>
 </sst>
 </file>
@@ -139,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -151,7 +160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,20 +480,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B0CB73-A0EE-1845-ADEE-622320F90FF1}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -504,7 +512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -512,15 +520,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -530,14 +538,14 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45183</v>
       </c>
@@ -547,15 +555,15 @@
       <c r="C7" s="3">
         <v>0.79861111111111116</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>45187</v>
       </c>
       <c r="B8" s="3">
@@ -564,11 +572,38 @@
       <c r="C8" s="3">
         <v>0.46875</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/assign03_meeting_diary.xlsx
+++ b/assign03_meeting_diary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanishjohar/Desktop/ExDA_Assign3/assignment-3-peaches/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanishjohar/Desktop/EDA3_Assign3/assignment-3-peaches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA0E977-F108-4646-9BC1-01B3375DFB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1266EC92-E099-9A4B-9BCC-AD723D439923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Team Name:</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>1. Discussed the plots to create to confirm expetations.</t>
+  </si>
+  <si>
+    <t>Discussion about the weather data, final format for the report</t>
   </si>
 </sst>
 </file>
@@ -480,17 +483,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B0CB73-A0EE-1845-ADEE-622320F90FF1}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.1640625" customWidth="1"/>
+    <col min="5" max="5" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -606,6 +609,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assign03_meeting_diary.xlsx
+++ b/assign03_meeting_diary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanishjohar/Desktop/EDA3_Assign3/assignment-3-peaches/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashvi\Documents\Monash\2023 Sem2\ETC5521\Assignments\assignment-3-peaches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1266EC92-E099-9A4B-9BCC-AD723D439923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90338BBE-3BE7-4D84-9E05-0E92F26862A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Team Name:</t>
   </si>
@@ -91,16 +91,15 @@
 4. Discusses some things to always consider when working collaboratively on git.</t>
   </si>
   <si>
-    <t>2. Delegated the work of downloading weather data and joining it with mild signtings</t>
-  </si>
-  <si>
-    <t>3. Discussed the plots to create afterwards</t>
-  </si>
-  <si>
-    <t>1. Discussed the plots to create to confirm expetations.</t>
-  </si>
-  <si>
     <t>Discussion about the weather data, final format for the report</t>
+  </si>
+  <si>
+    <t>1. Discussed the plots to create to confirm expetations.
+2. Delegated the work of downloading weather data and joining it with wild signtings.
+3. Discussed the plots to create afterwards</t>
+  </si>
+  <si>
+    <t>We also communicated daily via text messages to coordinate work.</t>
   </si>
 </sst>
 </file>
@@ -151,23 +150,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,20 +495,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B0CB73-A0EE-1845-ADEE-622320F90FF1}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -515,7 +527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -523,110 +535,112 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
         <v>45183</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="8">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>0.79861111111111116</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>45187</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>0.46875</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
         <v>45198</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="8">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <v>9</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>45202</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.46875</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>45202</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.46875</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assign03_meeting_diary.xlsx
+++ b/assign03_meeting_diary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashvi\Documents\Monash\2023 Sem2\ETC5521\Assignments\assignment-3-peaches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinbaruah/Monash Business School Local/Master of Business Analytics  /Exploratory Data Analysis/Assignments/Assignment 3 Part B/assignment-3-peaches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90338BBE-3BE7-4D84-9E05-0E92F26862A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20940508-ADB2-1C41-A4E7-8B081479CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part A" sheetId="1" r:id="rId1"/>
+    <sheet name="Part B" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Team Name:</t>
   </si>
@@ -101,12 +102,33 @@
   <si>
     <t>We also communicated daily via text messages to coordinate work.</t>
   </si>
+  <si>
+    <t>Kelly Nguyen</t>
+  </si>
+  <si>
+    <t>Yashika Taneja</t>
+  </si>
+  <si>
+    <t>Arindom Baruah</t>
+  </si>
+  <si>
+    <t>kngu0086</t>
+  </si>
+  <si>
+    <t>ytan0309</t>
+  </si>
+  <si>
+    <t>abar0090</t>
+  </si>
+  <si>
+    <t>Initial discussions and way forward</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,16 +151,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,11 +189,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -163,24 +221,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,18 +565,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B0CB73-A0EE-1845-ADEE-622320F90FF1}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -527,7 +595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -535,15 +603,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -560,81 +628,81 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>45183</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.79861111111111116</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="62" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>45187</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.46875</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+    <row r="9" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>45198</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+    <row r="10" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>45202</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>0.46875</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -643,4 +711,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EF314-C21A-2C43-85A5-178F4687F07E}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>45213</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assign03_meeting_diary.xlsx
+++ b/assign03_meeting_diary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinbaruah/Monash Business School Local/Master of Business Analytics  /Exploratory Data Analysis/Assignments/Assignment 3 Part B/assignment-3-peaches/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinbaruah/Monash Business School Local/Master of Business Analytics  /Exploratory Data Analysis/Assignments/Assignment 3/Part B/assignment-3-peaches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20940508-ADB2-1C41-A4E7-8B081479CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF94471-F51C-F04A-8F65-800D06B57997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="1" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
   </bookViews>
   <sheets>
     <sheet name="Part A" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Team Name:</t>
   </si>
@@ -121,7 +121,10 @@
     <t>abar0090</t>
   </si>
   <si>
-    <t>Initial discussions and way forward</t>
+    <t>3:30 OM</t>
+  </si>
+  <si>
+    <t>Initial discussions and way forward. Tourism data added. Clarifications regarding the data.</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -236,9 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -247,8 +247,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,12 +707,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -718,7 +728,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,34 +787,37 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>45213</v>
       </c>
       <c r="B7" s="17">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
+      <c r="E7" s="18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/assign03_meeting_diary.xlsx
+++ b/assign03_meeting_diary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinbaruah/Monash Business School Local/Master of Business Analytics  /Exploratory Data Analysis/Assignments/Assignment 3/Part B/assignment-3-peaches/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kelly/Desktop/ETC5521 - Exploratory Data Analysis/Assignments/Assignment4/assignment-3-peaches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF94471-F51C-F04A-8F65-800D06B57997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F18D7C-5621-0746-A199-252FB464E4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" activeTab="1" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
   </bookViews>
   <sheets>
     <sheet name="Part A" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Team Name:</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>Initial discussions and way forward. Tourism data added. Clarifications regarding the data.</t>
+  </si>
+  <si>
+    <t>3:00pm</t>
+  </si>
+  <si>
+    <t>4:30pm</t>
+  </si>
+  <si>
+    <t>All + Previous Peaches member (Ashvin)</t>
+  </si>
+  <si>
+    <t>Meeting with previous Peaches group member, discussions on subsetting by region Narrabri Surrounds, dividing previous report for amendments</t>
+  </si>
+  <si>
+    <t>Working together side by side to gather insights and discuss current workings</t>
   </si>
 </sst>
 </file>
@@ -211,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -247,17 +262,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,12 +725,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -725,10 +743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EF314-C21A-2C43-85A5-178F4687F07E}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,10 +822,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>45213</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>0.58333333333333337</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -816,8 +834,42 @@
       <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" s="15">
+        <v>45217</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>45218</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/assign03_meeting_diary.xlsx
+++ b/assign03_meeting_diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kelly/Desktop/ETC5521 - Exploratory Data Analysis/Assignments/Assignment4/assignment-3-peaches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F18D7C-5621-0746-A199-252FB464E4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428A218B-5186-754E-AD63-EEC786B39AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Team Name:</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>Working together side by side to gather insights and discuss current workings</t>
+  </si>
+  <si>
+    <t>10:00pm</t>
+  </si>
+  <si>
+    <t>11:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussing temporal analysis and next steps </t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -271,11 +280,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,12 +737,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -743,10 +755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EF314-C21A-2C43-85A5-178F4687F07E}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,7 +863,7 @@
       <c r="D8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -871,6 +883,26 @@
       <c r="E9" s="17" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>45220</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assign03_meeting_diary.xlsx
+++ b/assign03_meeting_diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kelly/Desktop/ETC5521 - Exploratory Data Analysis/Assignments/Assignment4/assignment-3-peaches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428A218B-5186-754E-AD63-EEC786B39AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6801B450-0BD7-B840-9E27-AB3C6B032F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Team Name:</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t xml:space="preserve">Discussing temporal analysis and next steps </t>
+  </si>
+  <si>
+    <t>8:00pm</t>
+  </si>
+  <si>
+    <t>Fixing previous report expectations, continuing to work on temporal analysis, adding replacing and image</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -288,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EF314-C21A-2C43-85A5-178F4687F07E}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -891,7 +900,7 @@
       <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -901,8 +910,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" s="8"/>
+    <row r="11" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>45223</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assign03_meeting_diary.xlsx
+++ b/assign03_meeting_diary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kelly/Desktop/ETC5521 - Exploratory Data Analysis/Assignments/Assignment4/assignment-3-peaches/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinbaruah/Monash Business School Local/Master of Business Analytics  /Exploratory Data Analysis/Assignments/Assignment 3/Part B/assignment-3-peaches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6801B450-0BD7-B840-9E27-AB3C6B032F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D073771-980F-F440-B5D6-2671BB4A318E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Team Name:</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>Fixing previous report expectations, continuing to work on temporal analysis, adding replacing and image</t>
+  </si>
+  <si>
+    <t>Working on report readiness, removing redundant plots, finalised temporal and eco tourism analysis and improved overall report coherency</t>
+  </si>
+  <si>
+    <t>Corected aspects of the heatmap, made all the plot themes uniform, allocated sections for the presentation</t>
+  </si>
+  <si>
+    <t>All + Paired presentation team</t>
+  </si>
+  <si>
+    <t>Presented report, participated in QnA</t>
   </si>
 </sst>
 </file>
@@ -292,12 +304,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,10 +772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EF314-C21A-2C43-85A5-178F4687F07E}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,17 +922,68 @@
       <c r="A11" s="15">
         <v>45223</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>45224</v>
+      </c>
+      <c r="B12" s="21">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.875</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>45225</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>45225</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0.875</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/assign03_meeting_diary.xlsx
+++ b/assign03_meeting_diary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinbaruah/Monash Business School Local/Master of Business Analytics  /Exploratory Data Analysis/Assignments/Assignment 3/Part B/assignment-3-peaches/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kelly/Desktop/ETC5521 - Exploratory Data Analysis/Assignments/Assignment4/assignment-3-peaches/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D073771-980F-F440-B5D6-2671BB4A318E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2760A8B7-D54C-0543-B8C2-79A30D1F63B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{AA36F377-8185-6045-958F-09DEEBD07722}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Team Name:</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>Presented report, participated in QnA</t>
+  </si>
+  <si>
+    <t>2:00pm</t>
+  </si>
+  <si>
+    <t>2:30pm</t>
+  </si>
+  <si>
+    <t>Final touch ups and edits for final submission</t>
   </si>
 </sst>
 </file>
@@ -301,11 +310,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,12 +763,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -772,10 +781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6EF314-C21A-2C43-85A5-178F4687F07E}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,13 +945,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>45224</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>0.875</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -953,13 +962,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>45225</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>0.625</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>0.75</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -970,13 +979,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>45225</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>0.875</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>0.91666666666666663</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -984,6 +993,23 @@
       </c>
       <c r="E14" s="17" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>45226</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
